--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2605974.261112638</v>
+        <v>2601345.13219273</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223173</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7969982.535543965</v>
+        <v>7967622.61798229</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>304.2146788900591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956551</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>29.94365049082627</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530237</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159202</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>49.93354191225004</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725778961</v>
       </c>
       <c r="I5" t="n">
-        <v>99.75383114432015</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>21.24059023833745</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.54550680794244</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>61.39345098864458</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1145,13 +1145,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>40.50836877162815</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>130.417892858628</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.075846023846</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1299307813326413</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -1430,13 +1430,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007169</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507329</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.482381017326</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>128.0652136235382</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422874129</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.482250613589</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059199</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003577</v>
+        <v>280.4599644277186</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281735</v>
+        <v>273.2139126555344</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415737</v>
+        <v>265.5568836689346</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806957</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313968</v>
+        <v>296.6956602587577</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029517</v>
+        <v>293.0012941303125</v>
       </c>
       <c r="H32" t="n">
-        <v>211.255848575249</v>
+        <v>204.8123861026099</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453461</v>
+        <v>20.92391191189552</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443474</v>
+        <v>48.81858568179564</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622523</v>
+        <v>105.2357625896132</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158222</v>
+        <v>137.1653684431831</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495916</v>
+        <v>222.6559073769525</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274702</v>
+        <v>251.2592108548311</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623485</v>
+        <v>269.5282451897094</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346797</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046306</v>
+        <v>67.32610467782396</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074547</v>
+        <v>52.47323292810637</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258519</v>
+        <v>38.0469481399461</v>
       </c>
       <c r="E34" t="n">
-        <v>44.4168526654643</v>
+        <v>37.97339019282521</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523157</v>
+        <v>39.72284161259248</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762371</v>
+        <v>50.54167953498461</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419575</v>
+        <v>37.89393170155665</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536768</v>
+        <v>15.73364728272858</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.0756081198236</v>
+        <v>6.632145647184501</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535092</v>
+        <v>84.75808915271182</v>
       </c>
       <c r="T34" t="n">
-        <v>123.775489959523</v>
+        <v>117.3320274868839</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865929</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734588</v>
+        <v>147.2897179008197</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.4672642215698</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409215</v>
+        <v>115.7096851682824</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175979</v>
+        <v>104.8511067449588</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3743,19 @@
         <v>292.7769070118667</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803921791</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
         <v>312.5642884866449</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>40.48690626822788</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812801</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>32.97164977244609</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V41" t="n">
         <v>242.2189017332848</v>
@@ -3980,10 +3980,10 @@
         <v>292.7769070118667</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707215054</v>
       </c>
       <c r="E44" t="n">
-        <v>215.2845520107877</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812801</v>
+        <v>68.38158003812799</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>124.7987569459455</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V44" t="n">
         <v>242.2189017332848</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415633</v>
+        <v>86.88909903415632</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443874</v>
+        <v>72.03622728443872</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627846</v>
+        <v>57.60994249627845</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915757</v>
+        <v>57.53638454915756</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892484</v>
+        <v>59.28583596892483</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131698</v>
+        <v>70.10467389131696</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788902</v>
+        <v>57.45692605788901</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906095</v>
+        <v>35.29664163906094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351687</v>
+        <v>26.19514000351685</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>510.0917957801881</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="C2" t="n">
-        <v>510.0917957801881</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="D2" t="n">
-        <v>510.0917957801881</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="E2" t="n">
-        <v>202.8042413457849</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="F2" t="n">
-        <v>189.9502069161667</v>
+        <v>777.7441318441284</v>
       </c>
       <c r="G2" t="n">
-        <v>180.8278554445739</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445739</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733287</v>
+        <v>242.2021271932813</v>
       </c>
       <c r="L2" t="n">
-        <v>546.1228674733287</v>
+        <v>735.5224189118102</v>
       </c>
       <c r="M2" t="n">
-        <v>810.486944432233</v>
+        <v>1236.68920190726</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.309833828088</v>
+        <v>1236.68920190726</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720416</v>
+        <v>1676.728802799588</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.54401313746</v>
+        <v>1986.923381216632</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.03045807851</v>
+        <v>1820.409826157683</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637927</v>
+        <v>1596.909223717099</v>
       </c>
       <c r="U2" t="n">
-        <v>1696.529855637927</v>
+        <v>1341.156494151698</v>
       </c>
       <c r="V2" t="n">
-        <v>1696.529855637927</v>
+        <v>999.0496848552165</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.529855637927</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="X2" t="n">
-        <v>1307.077250570984</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.586541491585</v>
+        <v>790.5981662737466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.567375016333</v>
+        <v>657.7430775364669</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764252</v>
+        <v>507.0888470965591</v>
       </c>
       <c r="D3" t="n">
-        <v>454.9131445764252</v>
+        <v>376.9998797180394</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>240.5533888289272</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>116.121582712059</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245262</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512717</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703876</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703876</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>150.7494967528501</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>676.5723861487047</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>1202.395275544559</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="O3" t="n">
-        <v>1718.915558135541</v>
+        <v>1384.929834659822</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851938</v>
+        <v>1790.55120337622</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750002</v>
+        <v>2000.999251829175</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649871</v>
+        <v>1866.068574729044</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.70539484878</v>
+        <v>1689.084762927952</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527421</v>
+        <v>1479.021619606594</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898488</v>
+        <v>1256.481617977661</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031775</v>
+        <v>1026.364372110948</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817871</v>
+        <v>837.0572944609596</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572944</v>
+        <v>657.7430775364669</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.0637149384669</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>331.0637149384669</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="D4" t="n">
-        <v>331.0637149384669</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="E4" t="n">
-        <v>331.0637149384669</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="F4" t="n">
-        <v>331.0637149384669</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="G4" t="n">
-        <v>331.0637149384669</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="H4" t="n">
-        <v>175.5851638999609</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703876</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823638</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>381.5016360619518</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>381.5016360619518</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>331.0637149384669</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>331.0637149384669</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>331.0637149384669</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.0637149384669</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>165.2285700385731</v>
+        <v>551.2091433733581</v>
       </c>
       <c r="C5" t="n">
-        <v>165.2285700385731</v>
+        <v>551.2091433733581</v>
       </c>
       <c r="D5" t="n">
-        <v>165.2285700385731</v>
+        <v>551.2091433733581</v>
       </c>
       <c r="E5" t="n">
-        <v>165.2285700385731</v>
+        <v>551.2091433733581</v>
       </c>
       <c r="F5" t="n">
-        <v>152.3745356089549</v>
+        <v>538.3551089437399</v>
       </c>
       <c r="G5" t="n">
-        <v>143.2521841373621</v>
+        <v>125.192353431743</v>
       </c>
       <c r="H5" t="n">
-        <v>143.2521841373621</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703876</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>46.53780406922959</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>539.8580957877584</v>
+        <v>990.7164596631902</v>
       </c>
       <c r="M5" t="n">
-        <v>1065.680985183613</v>
+        <v>1491.88324265864</v>
       </c>
       <c r="N5" t="n">
-        <v>1591.503874579468</v>
+        <v>1491.88324265864</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579468</v>
+        <v>1491.88324265864</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.69136671099</v>
+        <v>1840.070734790162</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.54401313746</v>
+        <v>1986.923381216632</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.03045807851</v>
+        <v>1820.409826157683</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.03045807851</v>
+        <v>1596.909223717099</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.277728513109</v>
+        <v>1341.156494151698</v>
       </c>
       <c r="V5" t="n">
-        <v>1322.170919216628</v>
+        <v>1341.156494151698</v>
       </c>
       <c r="W5" t="n">
-        <v>951.1718841849151</v>
+        <v>1341.156494151698</v>
       </c>
       <c r="X5" t="n">
-        <v>561.719279117972</v>
+        <v>951.7038890847549</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.2285700385731</v>
+        <v>951.7038890847549</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.567375016333</v>
+        <v>736.0639889622187</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9131445764252</v>
+        <v>585.4097585223109</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8241771979056</v>
+        <v>455.3207911437912</v>
       </c>
       <c r="E6" t="n">
-        <v>188.3776863087933</v>
+        <v>318.8743002546789</v>
       </c>
       <c r="F6" t="n">
-        <v>63.94588019192507</v>
+        <v>194.4424941378107</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703876</v>
+        <v>74.38267620967518</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703876</v>
+        <v>74.38267620967518</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567661</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>639.1718066550794</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>1164.994696050934</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544559</v>
+        <v>1458.085323074339</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135541</v>
+        <v>1619.294926214713</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750002</v>
+        <v>2000.999251829175</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649871</v>
+        <v>1866.068574729044</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.70539484878</v>
+        <v>1689.084762927952</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527421</v>
+        <v>1479.021619606594</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898488</v>
+        <v>1256.481617977661</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031775</v>
+        <v>1256.481617977661</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817871</v>
+        <v>1067.174540327673</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572944</v>
+        <v>887.86032340318</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1080904039238</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1080904039238</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="D7" t="n">
-        <v>679.1080904039238</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760992</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823638</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>679.1080904039238</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>679.1080904039238</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>679.1080904039238</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>679.1080904039238</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>679.1080904039238</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.1080904039238</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.5971671495322</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>239.4216656524628</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>239.4216656524628</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>239.4216656524628</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>226.5676312228446</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1429.582621940328</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1033.091912860929</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>817.0247473313507</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>817.0247473313507</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>817.0247473313507</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>817.0247473313507</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>817.0247473313507</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>817.0247473313507</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1520.172595964104</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1221.937775754223</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>931.4373282580789</v>
+        <v>731.4357765463906</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>656.6116896536174</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244625</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.825141992309</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2945.013093714096</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.846965704803</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2421.788611960279</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2127.276688180524</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1825.726660388313</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.744905612751</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.52287682331</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2295.043159414291</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2295.043159414291</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443718</v>
@@ -5197,25 +5197,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5224,7 +5224,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580791</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>609.4835710752452</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2858.790257196483</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2729.431455556545</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>490.2252314250076</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
         <v>1629.56928853388</v>
@@ -5413,46 +5413,46 @@
         <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803421</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924091</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,7 +5543,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
         <v>1863.93438008877</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.185821680342</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5780,13 +5780,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099321</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803437</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,10 +6026,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6069,19 +6069,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,25 +6251,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517125</v>
@@ -6367,16 +6367,16 @@
         <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746015</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,16 +6385,16 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904108</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286449</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.125737939027</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142185</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,10 +6488,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904116</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084636</v>
+        <v>1719.814764781095</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985471</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200823</v>
       </c>
       <c r="E32" t="n">
-        <v>918.246771114492</v>
+        <v>890.2201666674325</v>
       </c>
       <c r="F32" t="n">
-        <v>612.045637042374</v>
+        <v>590.5275805474753</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282813</v>
+        <v>294.5666773855435</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267633</v>
+        <v>87.68547930209908</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304541</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193353</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2139.307231719907</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690202</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.54164846211</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243444</v>
+        <v>3327.510737231443</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231443</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491225</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448546</v>
+        <v>3171.90028443204</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281048</v>
+        <v>3033.349407216704</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382471</v>
+        <v>2808.444450270287</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748663</v>
+        <v>2554.647267588639</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079624</v>
+        <v>2282.396514871761</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398129</v>
+        <v>2003.107658142427</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304541</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649992</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633124</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590189</v>
+        <v>341.6872565554773</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229123</v>
+        <v>288.6839909715315</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233313</v>
+        <v>250.2527302241112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804381</v>
+        <v>211.8957704333787</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913153</v>
+        <v>171.7716879964166</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886651</v>
+        <v>120.7194864459271</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806328</v>
+        <v>82.44278775748602</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304541</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259939</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763217</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>610.2030886905075</v>
+        <v>312.5128957283705</v>
       </c>
       <c r="M34" t="n">
-        <v>904.9851746691575</v>
+        <v>613.6740095549333</v>
       </c>
       <c r="N34" t="n">
-        <v>1146.581702203955</v>
+        <v>810.7134513543699</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245663</v>
+        <v>1088.287753884377</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022241</v>
+        <v>1323.033455149254</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392292</v>
+        <v>1326.455651519305</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422773</v>
+        <v>1319.756514501947</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003227</v>
+        <v>1234.142283034561</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569365</v>
+        <v>1115.62508355286</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209171</v>
+        <v>947.3881441448257</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914278992</v>
+        <v>798.6106513157148</v>
       </c>
       <c r="W34" t="n">
-        <v>699.559993756981</v>
+        <v>632.4821015969574</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378684</v>
+        <v>515.6036317300054</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524159</v>
+        <v>409.6934228967137</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,13 +6974,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,13 +7199,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573995</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1534.254693780215</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1238.520444273278</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>950.5205674800794</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>645.3782945867571</v>
+        <v>738.1896826232702</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867571</v>
+        <v>418.7364961433813</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648935</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215174</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2946.592338015482</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2701.926780709133</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2428.368997667554</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2136.357644590744</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1837.308187501478</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7567,16 +7567,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>68.2319501674381</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529096</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170086</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308022</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N43" t="n">
         <v>1065.684527822772</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1498.487087451244</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C44" t="n">
-        <v>1202.752837944307</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D44" t="n">
-        <v>914.7529611511081</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>697.293817705868</v>
+        <v>697.2938177058679</v>
       </c>
       <c r="F44" t="n">
         <v>377.8406312259791</v>
@@ -7679,19 +7679,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2910.82473168651</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2666.159174380162</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2392.601391338583</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2100.590038261773</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y44" t="n">
-        <v>1801.540581172507</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344858</v>
+        <v>475.5803720344857</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906083</v>
+        <v>402.8165060906082</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832563</v>
+        <v>344.6246449832562</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325921</v>
+        <v>286.507084832592</v>
       </c>
       <c r="F46" t="n">
         <v>226.6224020356983</v>
@@ -7798,7 +7798,7 @@
         <v>155.8096001252771</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690437</v>
+        <v>97.77230107690436</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,7 +7807,7 @@
         <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676792</v>
       </c>
       <c r="L46" t="n">
         <v>564.8145793170086</v>
@@ -7816,13 +7816,13 @@
         <v>846.6083287308022</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822771</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237698</v>
@@ -7837,19 +7837,19 @@
         <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423492</v>
       </c>
       <c r="V46" t="n">
         <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557609</v>
+        <v>825.6570181557606</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288772</v>
+        <v>689.017947928877</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356539</v>
+        <v>563.3471387356536</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>200.688734882097</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>416.7594727683377</v>
+        <v>655.9541253305049</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507686</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>199.4126278829903</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622964</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671511</v>
+        <v>591.6011865869442</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.7619605532421</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>147.1463481612483</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.34514430451</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107118</v>
+        <v>655.9541253305049</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507686</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
@@ -8295,19 +8295,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622964</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>123.1504759790406</v>
+        <v>591.6011865869442</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589633</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,13 +8529,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>177.2623988786017</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,16 +9006,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>407.7697853345098</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9495,10 +9495,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,22 +9717,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>457.6168628059747</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>92.68755888888889</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069886</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10601,7 +10601,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,13 +11139,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,7 +11154,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>373.8515870339854</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>230.4905691364584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.1443911605284</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.1130620038565</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>145.2325565835407</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -25631,19 +25631,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213452</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812801</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>123.7567130270693</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531164</v>
       </c>
       <c r="E44" t="n">
-        <v>86.80629815360123</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822788</v>
+        <v>40.48690626822787</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995154</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>692067.8376091878</v>
+        <v>690864.7423816671</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>692067.8376091878</v>
+        <v>690864.7423816671</v>
       </c>
     </row>
     <row r="4">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>613129.4055174136</v>
+      </c>
+      <c r="C2" t="n">
+        <v>613129.4055174134</v>
+      </c>
+      <c r="D2" t="n">
         <v>613129.4055174132</v>
-      </c>
-      <c r="C2" t="n">
-        <v>613129.4055174133</v>
-      </c>
-      <c r="D2" t="n">
-        <v>613129.4055174133</v>
       </c>
       <c r="E2" t="n">
         <v>576218.8171230102</v>
       </c>
       <c r="F2" t="n">
-        <v>576218.8171230103</v>
+        <v>576218.8171230099</v>
       </c>
       <c r="G2" t="n">
+        <v>613129.4055174129</v>
+      </c>
+      <c r="H2" t="n">
+        <v>613129.4055174132</v>
+      </c>
+      <c r="I2" t="n">
         <v>613129.4055174127</v>
       </c>
-      <c r="H2" t="n">
-        <v>613129.4055174125</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>613129.405517413</v>
+      </c>
+      <c r="K2" t="n">
+        <v>613129.405517413</v>
+      </c>
+      <c r="L2" t="n">
+        <v>613129.4055174139</v>
+      </c>
+      <c r="M2" t="n">
         <v>613129.4055174128</v>
-      </c>
-      <c r="J2" t="n">
-        <v>613129.4055174132</v>
-      </c>
-      <c r="K2" t="n">
-        <v>613129.4055174134</v>
-      </c>
-      <c r="L2" t="n">
-        <v>613129.4055174136</v>
-      </c>
-      <c r="M2" t="n">
-        <v>613129.4055174126</v>
       </c>
       <c r="N2" t="n">
         <v>613129.4055174127</v>
@@ -26353,7 +26353,7 @@
         <v>578731.2680373653</v>
       </c>
       <c r="P2" t="n">
-        <v>578731.2680373656</v>
+        <v>578731.2680373655</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.0058765496</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602675</v>
+        <v>26460.41160941843</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301428</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670134</v>
+        <v>46725.80335481256</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015685</v>
+        <v>18983.55983015693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614854</v>
+        <v>218972.624010188</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614854</v>
+        <v>218972.624010188</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>148856.2633404648</v>
+        <v>148856.2633404649</v>
       </c>
       <c r="F4" t="n">
-        <v>148856.2633404648</v>
+        <v>148856.2633404649</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="H4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936688</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295288</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295288</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446765</v>
+        <v>60332.67530588336</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155750.0021334278</v>
+        <v>160101.4479477232</v>
       </c>
       <c r="C6" t="n">
-        <v>333745.2992677785</v>
+        <v>329750.4538242726</v>
       </c>
       <c r="D6" t="n">
-        <v>324689.8917963003</v>
+        <v>316953.6025729084</v>
       </c>
       <c r="E6" t="n">
-        <v>241797.3331359241</v>
+        <v>241688.7725818228</v>
       </c>
       <c r="F6" t="n">
-        <v>372250.2642736364</v>
+        <v>372141.7037195348</v>
       </c>
       <c r="G6" t="n">
-        <v>352404.0963449319</v>
+        <v>352404.0963449323</v>
       </c>
       <c r="H6" t="n">
-        <v>381499.052217946</v>
+        <v>381499.0522179468</v>
       </c>
       <c r="I6" t="n">
-        <v>381499.0522179464</v>
+        <v>381499.0522179463</v>
       </c>
       <c r="J6" t="n">
-        <v>153413.4088681974</v>
+        <v>159929.6940227704</v>
       </c>
       <c r="K6" t="n">
-        <v>375259.2838151639</v>
+        <v>375259.2838151637</v>
       </c>
       <c r="L6" t="n">
-        <v>336364.9368825759</v>
+        <v>332316.0996721039</v>
       </c>
       <c r="M6" t="n">
-        <v>338767.7752835776</v>
+        <v>337716.0802723897</v>
       </c>
       <c r="N6" t="n">
         <v>381499.0522179463</v>
       </c>
       <c r="O6" t="n">
-        <v>353896.4211852014</v>
+        <v>353795.250192613</v>
       </c>
       <c r="P6" t="n">
-        <v>372879.9810153586</v>
+        <v>372778.8100227701</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>96.46683947023193</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,7 +26808,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880676</v>
+        <v>831.8776843078607</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126785</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304862</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087667</v>
+        <v>58.4072541935157</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165921</v>
+        <v>14.33013548902008</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769607</v>
+        <v>23.72944978769617</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631057</v>
+        <v>85.18305253651749</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559185</v>
+        <v>646.8007142757117</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455255</v>
+        <v>129.6883820257324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126785</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304862</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631057</v>
+        <v>85.18305253651749</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>94.34301074456175</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857403</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105.1383754893949</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550355183</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427962</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>213.386009815134</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713846</v>
       </c>
       <c r="I5" t="n">
-        <v>37.19991459413967</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>97.61862951051675</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>15.34787464026508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,16 +27780,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>171.9684103248036</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>368.5227591852487</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28017,19 +28017,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>102.9439684548202</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,37 +28758,37 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634530087</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29296,16 +29296,16 @@
         <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431647</v>
@@ -29314,10 +29314,10 @@
         <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431647</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>26.78466270501741</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539252</v>
+        <v>103.2865954513686</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539252</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539252</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="N34" t="n">
-        <v>58.99686212483653</v>
+        <v>13.98970481639137</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="35">
@@ -30171,25 +30171,25 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30411,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>96.46683947023193</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023193</v>
+        <v>36.24905561692935</v>
       </c>
       <c r="K43" t="n">
         <v>96.46683947023193</v>
@@ -30651,7 +30651,7 @@
         <v>96.46683947023193</v>
       </c>
       <c r="N43" t="n">
-        <v>36.24905561692941</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="O43" t="n">
         <v>96.46683947023193</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023193</v>
+        <v>36.24905561692896</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561692938</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023195</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>57.63033170285963</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>267.0344211706104</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129845</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>109.352281026072</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129845</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643533</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>4.087944982010945</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.0969745740182</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129845</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129845</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>37.77836312487391</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700744</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>86.27424572268772</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35726,16 +35726,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>318.1728500011765</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,13 +36054,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716088</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36215,10 +36215,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094889</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,10 +36610,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698319</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>372.244749951808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039233</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -36999,7 +36999,7 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>471.2691080508037</v>
+        <v>560.5142791723506</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605129</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649843</v>
+        <v>289.9992824624277</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659192</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576767</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176612</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407352</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759452</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067171</v>
+        <v>304.2031452793562</v>
       </c>
       <c r="N34" t="n">
-        <v>244.0368964997953</v>
+        <v>199.0297391913502</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636432</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645225</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37467,10 +37467,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,22 +37707,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,7 +37874,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>286.7682222146707</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807285</v>
+        <v>6.174568144770276</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37947,7 +37947,7 @@
         <v>284.6401509230239</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918882</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073108</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807285</v>
+        <v>66.39235199807288</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38184,7 +38184,7 @@
         <v>284.6401509230239</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918877</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073108</v>
@@ -38193,7 +38193,7 @@
         <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708187</v>
+        <v>99.92360348038443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
